--- a/biology/Botanique/Fagara_mezoneurispinosa/Fagara_mezoneurispinosa.xlsx
+++ b/biology/Botanique/Fagara_mezoneurispinosa/Fagara_mezoneurispinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zanthoxylum mezoneurispinosum est une espèce de plantes de la famille des Rutaceae. Originaire d'Afrique tropicale, elle est endémique de Côte d'Ivoire où l'espèce est en danger (EN) selon les estimations de l'UICN.
 </t>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1960 par le botaniste Laurent Aké Assi (1931-2014), sous le basionyme de Fagara mezoneurispinosa, puis elle a été recomposée dans le genre Zanthoxylum en 2006 par le botaniste William D. Hawthorne[2]
-Publication originale : Woody plants of Western African forests: a guide to the forest trees, shrubs and lianes from Senegal to Ghana 712. 2006[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1960 par le botaniste Laurent Aké Assi (1931-2014), sous le basionyme de Fagara mezoneurispinosa, puis elle a été recomposée dans le genre Zanthoxylum en 2006 par le botaniste William D. Hawthorne
+Publication originale : Woody plants of Western African forests: a guide to the forest trees, shrubs and lianes from Senegal to Ghana 712. 2006.
 </t>
         </is>
       </c>
